--- a/src/data/intent_and_ner/Intent Training Examples_JL.xlsx
+++ b/src/data/intent_and_ner/Intent Training Examples_JL.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="293">
   <si>
     <t xml:space="preserve">Intent</t>
   </si>
@@ -234,6 +234,18 @@
     <t xml:space="preserve">Just saying hello</t>
   </si>
   <si>
+    <t xml:space="preserve">What is the meaning of life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how are you today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make me laugh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conclusions</t>
   </si>
   <si>
@@ -279,6 +291,18 @@
     <t xml:space="preserve">we done</t>
   </si>
   <si>
+    <t xml:space="preserve">You are talking very strangely. I think I’m done here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you so much! Have a great day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is everything I needed. Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Later alligator</t>
+  </si>
+  <si>
     <t xml:space="preserve">What does the current job market look like for a machine learning engineer in San Francisco?</t>
   </si>
   <si>
@@ -288,33 +312,45 @@
     <t xml:space="preserve">For a product analyst in Seattle, what do job postings have in common?</t>
   </si>
   <si>
-    <t xml:space="preserve">Show me jobs in Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send me engineering jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many engineering positions are open in Tampa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What job openings are there for software engineers?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which city is looking for actuaries?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where can I go to find a marketing job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What jobs are in New York? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where do accountants work?</t>
+    <t xml:space="preserve">Show me software engineering jobs in Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send me actuarial analyst jobs in california</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many product management positions are open in Tampa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What job openings are there for software engineers in boston?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you help me find job postings for actuaries in florida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there marketing jobs open in santa fe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I find work as an accountant in new hampshire?</t>
   </si>
   <si>
     <t xml:space="preserve">Can you show me job postings for HR in Detroit?</t>
   </si>
   <si>
+    <t xml:space="preserve">What jobs are available for HR managers in georgia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I wanted to live in new york, can I find work as a data engineer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For new jersey, are there any jobs open for senior software engineers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to be a machine learning engineer in the united kingdom.</t>
+  </si>
+  <si>
     <t xml:space="preserve">What skills do software engineers need</t>
   </si>
   <si>
@@ -330,7 +366,7 @@
     <t xml:space="preserve">product management skills</t>
   </si>
   <si>
-    <t xml:space="preserve">Where can I find skills for an artist?</t>
+    <t xml:space="preserve">What skills are needed as an artist?</t>
   </si>
   <si>
     <t xml:space="preserve">What skills are required for a machine learning engineer?</t>
@@ -348,7 +384,7 @@
     <t xml:space="preserve">What are top skills listed for actuary jobs?</t>
   </si>
   <si>
-    <t xml:space="preserve">How many different languages do computer scientists need to know?</t>
+    <t xml:space="preserve">What are common traits that computer scientists need to have?</t>
   </si>
   <si>
     <t xml:space="preserve">what skills do computer scientists need to know</t>
@@ -357,12 +393,24 @@
     <t xml:space="preserve">what skills do coders have</t>
   </si>
   <si>
-    <t xml:space="preserve">what languages do coders know</t>
+    <t xml:space="preserve">can you tell me about the most frequent skills a coder might need?</t>
   </si>
   <si>
     <t xml:space="preserve">what skills do analysts have? </t>
   </si>
   <si>
+    <t xml:space="preserve">top skills for a data engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common attributes of product managers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what skills are frequently listed in job postings for actuaries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for a research scientist, what skills do I need?</t>
+  </si>
+  <si>
     <t xml:space="preserve">OG_Text</t>
   </si>
   <si>
@@ -621,19 +669,187 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accountant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">researchers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strangely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">think</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alligator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Show</t>
   </si>
   <si>
-    <t xml:space="preserve">me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs</t>
+    <t xml:space="preserve">engineering</t>
   </si>
   <si>
     <t xml:space="preserve">Send</t>
   </si>
   <si>
-    <t xml:space="preserve">engineering</t>
+    <t xml:space="preserve">actuarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">california</t>
   </si>
   <si>
     <t xml:space="preserve">many</t>
@@ -654,139 +870,118 @@
     <t xml:space="preserve">there</t>
   </si>
   <si>
-    <t xml:space="preserve">software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engineers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">looking</t>
+    <t xml:space="preserve">boston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find</t>
   </si>
   <si>
     <t xml:space="preserve">actuaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Where</t>
+    <t xml:space="preserve">florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accountant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hampshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">managers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">york</t>
   </si>
   <si>
     <t xml:space="preserve">can</t>
   </si>
   <si>
-    <t xml:space="preserve">go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accountants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detroit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accountant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">researchers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an</t>
+    <t xml:space="preserve">jersey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">united</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">most</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actuary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">different</t>
-  </si>
-  <si>
-    <t xml:space="preserve">languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysts</t>
+    <t xml:space="preserve">traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research</t>
   </si>
 </sst>
 </file>
@@ -896,13 +1091,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -956,22 +1155,22 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="113.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -992,7 +1191,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1015,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1048,39 +1247,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1089,8 +1289,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1100,352 +1300,352 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1453,7 +1653,7 @@
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1461,7 +1661,7 @@
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1469,7 +1669,7 @@
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1477,136 +1677,264 @@
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="2" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1626,28 +1954,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:C593"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A539" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C596" activeCellId="0" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="77.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>88</v>
+      <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>17</v>
@@ -1666,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>17</v>
@@ -1677,7 +2006,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>17</v>
@@ -1688,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>17</v>
@@ -1699,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>17</v>
@@ -1715,7 +2044,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>17</v>
@@ -1726,7 +2055,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>17</v>
@@ -1742,7 +2071,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>17</v>
@@ -1753,7 +2082,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>17</v>
@@ -1764,7 +2093,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>17</v>
@@ -1775,7 +2104,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>17</v>
@@ -1786,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>17</v>
@@ -1802,7 +2131,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>17</v>
@@ -1813,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>17</v>
@@ -1824,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>17</v>
@@ -1835,7 +2164,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>17</v>
@@ -1846,7 +2175,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>17</v>
@@ -1857,7 +2186,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>17</v>
@@ -1868,7 +2197,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>17</v>
@@ -1879,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>17</v>
@@ -1895,7 +2224,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>17</v>
@@ -1906,7 +2235,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>17</v>
@@ -1917,7 +2246,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>17</v>
@@ -1928,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>17</v>
@@ -1939,7 +2268,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>17</v>
@@ -1950,7 +2279,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>17</v>
@@ -1966,7 +2295,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>17</v>
@@ -1977,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>17</v>
@@ -1988,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>17</v>
@@ -1999,7 +2328,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>17</v>
@@ -2010,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>17</v>
@@ -2026,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>17</v>
@@ -2037,7 +2366,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>17</v>
@@ -2048,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>17</v>
@@ -2059,7 +2388,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>17</v>
@@ -2070,7 +2399,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>17</v>
@@ -2081,7 +2410,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>17</v>
@@ -2097,7 +2426,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>17</v>
@@ -2108,7 +2437,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>17</v>
@@ -2119,7 +2448,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>17</v>
@@ -2151,7 +2480,7 @@
         <v>33</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>17</v>
@@ -2162,7 +2491,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>17</v>
@@ -2173,7 +2502,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>17</v>
@@ -2184,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>17</v>
@@ -2195,7 +2524,7 @@
         <v>33</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>17</v>
@@ -2243,7 +2572,7 @@
         <v>36</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>17</v>
@@ -2254,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>17</v>
@@ -2265,7 +2594,7 @@
         <v>36</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>17</v>
@@ -2276,7 +2605,7 @@
         <v>36</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>17</v>
@@ -2287,7 +2616,7 @@
         <v>36</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>17</v>
@@ -2303,7 +2632,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>17</v>
@@ -2314,7 +2643,7 @@
         <v>37</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>17</v>
@@ -2325,7 +2654,7 @@
         <v>37</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>17</v>
@@ -2336,7 +2665,7 @@
         <v>37</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>17</v>
@@ -2347,7 +2676,7 @@
         <v>37</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>17</v>
@@ -2358,7 +2687,7 @@
         <v>37</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>17</v>
@@ -2369,7 +2698,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>17</v>
@@ -2380,7 +2709,7 @@
         <v>37</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>17</v>
@@ -2396,7 +2725,7 @@
         <v>38</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>17</v>
@@ -2407,7 +2736,7 @@
         <v>38</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>17</v>
@@ -2418,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>17</v>
@@ -2429,7 +2758,7 @@
         <v>38</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>17</v>
@@ -2440,7 +2769,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>17</v>
@@ -2456,7 +2785,7 @@
         <v>39</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>17</v>
@@ -2467,7 +2796,7 @@
         <v>39</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>17</v>
@@ -2478,7 +2807,7 @@
         <v>39</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>17</v>
@@ -2489,7 +2818,7 @@
         <v>39</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>17</v>
@@ -2505,7 +2834,7 @@
         <v>40</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>17</v>
@@ -2516,7 +2845,7 @@
         <v>40</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>17</v>
@@ -2527,7 +2856,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>17</v>
@@ -2538,7 +2867,7 @@
         <v>40</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>17</v>
@@ -2549,7 +2878,7 @@
         <v>40</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>17</v>
@@ -2560,7 +2889,7 @@
         <v>40</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>17</v>
@@ -2576,7 +2905,7 @@
         <v>41</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>17</v>
@@ -2587,7 +2916,7 @@
         <v>41</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>17</v>
@@ -2598,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>17</v>
@@ -2609,7 +2938,7 @@
         <v>41</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>17</v>
@@ -2620,7 +2949,7 @@
         <v>41</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>17</v>
@@ -2631,7 +2960,7 @@
         <v>41</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>17</v>
@@ -2647,7 +2976,7 @@
         <v>42</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>17</v>
@@ -2658,7 +2987,7 @@
         <v>42</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>17</v>
@@ -2669,7 +2998,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>17</v>
@@ -2682,10 +3011,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>17</v>
@@ -2693,15 +3022,15 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>17</v>
@@ -2709,10 +3038,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>17</v>
@@ -2720,10 +3049,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>17</v>
@@ -2731,15 +3060,15 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>17</v>
@@ -2747,10 +3076,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>17</v>
@@ -2758,10 +3087,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>17</v>
@@ -2769,10 +3098,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>17</v>
@@ -2780,15 +3109,15 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>17</v>
@@ -2796,10 +3125,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>17</v>
@@ -2807,10 +3136,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>17</v>
@@ -2818,15 +3147,15 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>17</v>
@@ -2834,10 +3163,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>17</v>
@@ -2845,15 +3174,15 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>17</v>
@@ -2861,15 +3190,15 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>17</v>
@@ -2877,15 +3206,15 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>17</v>
@@ -2893,15 +3222,15 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>17</v>
@@ -2909,15 +3238,15 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>17</v>
@@ -2925,15 +3254,15 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>17</v>
@@ -2941,10 +3270,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>17</v>
@@ -2952,15 +3281,15 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>17</v>
@@ -2968,15 +3297,15 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>17</v>
@@ -2984,15 +3313,15 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>17</v>
@@ -3000,10 +3329,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>17</v>
@@ -3011,15 +3340,15 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>17</v>
@@ -3027,10 +3356,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>17</v>
@@ -3038,10 +3367,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>17</v>
@@ -3049,10 +3378,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>17</v>
@@ -3060,10 +3389,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>17</v>
@@ -3071,10 +3400,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>17</v>
@@ -3082,10 +3411,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>17</v>
@@ -3093,10 +3422,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>17</v>
@@ -3104,10 +3433,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>17</v>
@@ -3115,10 +3444,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>17</v>
@@ -3126,10 +3455,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>19</v>
@@ -3137,10 +3466,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C155" s="0" t="s">
         <v>19</v>
@@ -3148,10 +3477,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>19</v>
@@ -3159,10 +3488,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>17</v>
@@ -3170,10 +3499,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C158" s="0" t="s">
         <v>21</v>
@@ -3181,10 +3510,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C159" s="0" t="s">
         <v>21</v>
@@ -3192,10 +3521,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>17</v>
@@ -3203,15 +3532,15 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C162" s="0" t="s">
         <v>17</v>
@@ -3219,10 +3548,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C163" s="0" t="s">
         <v>17</v>
@@ -3230,10 +3559,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>17</v>
@@ -3241,10 +3570,10 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>17</v>
@@ -3252,10 +3581,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>17</v>
@@ -3263,10 +3592,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>17</v>
@@ -3274,10 +3603,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>17</v>
@@ -3285,10 +3614,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>17</v>
@@ -3296,10 +3625,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>17</v>
@@ -3307,10 +3636,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>19</v>
@@ -3318,10 +3647,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>19</v>
@@ -3329,10 +3658,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>17</v>
@@ -3340,10 +3669,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>21</v>
@@ -3351,10 +3680,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>17</v>
@@ -3362,15 +3691,15 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>17</v>
@@ -3378,10 +3707,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>17</v>
@@ -3389,10 +3718,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>19</v>
@@ -3400,10 +3729,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>19</v>
@@ -3411,10 +3740,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>17</v>
@@ -3422,10 +3751,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>21</v>
@@ -3433,10 +3762,10 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>17</v>
@@ -3444,10 +3773,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>17</v>
@@ -3455,10 +3784,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>17</v>
@@ -3466,10 +3795,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>17</v>
@@ -3477,10 +3806,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>17</v>
@@ -3488,10 +3817,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>17</v>
@@ -3499,10 +3828,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>17</v>
@@ -3510,10 +3839,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>17</v>
@@ -3521,10 +3850,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>17</v>
@@ -3532,15 +3861,15 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>17</v>
@@ -3548,10 +3877,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>17</v>
@@ -3559,10 +3888,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>17</v>
@@ -3570,10 +3899,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>17</v>
@@ -3581,26 +3910,32 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>17</v>
@@ -3608,59 +3943,59 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>17</v>
@@ -3668,21 +4003,21 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>17</v>
@@ -3690,32 +4025,32 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>17</v>
@@ -3723,37 +4058,37 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>63</v>
+        <v>83</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>17</v>
@@ -3761,21 +4096,15 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>17</v>
@@ -3783,10 +4112,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>17</v>
@@ -3794,10 +4123,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>17</v>
@@ -3805,21 +4134,21 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>19</v>
@@ -3827,21 +4156,21 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>17</v>
@@ -3849,15 +4178,15 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>17</v>
@@ -3865,10 +4194,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>17</v>
@@ -3876,10 +4205,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>17</v>
@@ -3887,10 +4216,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>17</v>
@@ -3898,10 +4227,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>17</v>
@@ -3909,37 +4238,43 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>17</v>
@@ -3947,43 +4282,37 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>17</v>
@@ -3991,21 +4320,15 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>17</v>
@@ -4013,21 +4336,21 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>193</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>17</v>
@@ -4035,10 +4358,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>17</v>
@@ -4046,15 +4369,21 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>17</v>
@@ -4062,65 +4391,59 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>17</v>
@@ -4128,15 +4451,21 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>17</v>
@@ -4144,10 +4473,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>17</v>
@@ -4155,21 +4484,21 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>17</v>
@@ -4177,10 +4506,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>17</v>
@@ -4188,37 +4517,43 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>17</v>
@@ -4226,21 +4561,15 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>17</v>
@@ -4248,10 +4577,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C262" s="0" t="s">
         <v>17</v>
@@ -4259,10 +4588,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>17</v>
@@ -4270,21 +4599,21 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>17</v>
@@ -4292,21 +4621,21 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>17</v>
@@ -4314,15 +4643,21 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>17</v>
@@ -4330,10 +4665,10 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>17</v>
@@ -4341,10 +4676,10 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>17</v>
@@ -4352,10 +4687,10 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>19</v>
@@ -4363,10 +4698,10 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>19</v>
@@ -4374,10 +4709,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>17</v>
@@ -4385,26 +4720,26 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>17</v>
@@ -4412,10 +4747,10 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>17</v>
@@ -4423,37 +4758,43 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>17</v>
@@ -4461,32 +4802,26 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>17</v>
@@ -4494,10 +4829,10 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C286" s="0" t="s">
         <v>17</v>
@@ -4505,15 +4840,21 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>17</v>
@@ -4521,10 +4862,10 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>17</v>
@@ -4532,10 +4873,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>17</v>
@@ -4543,21 +4884,21 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>17</v>
@@ -4565,10 +4906,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>17</v>
@@ -4576,32 +4917,26 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>17</v>
@@ -4609,15 +4944,21 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>19</v>
@@ -4625,10 +4966,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>19</v>
@@ -4636,10 +4977,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>17</v>
@@ -4647,15 +4988,21 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C302" s="0" t="s">
         <v>17</v>
@@ -4663,21 +5010,15 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>17</v>
@@ -4685,10 +5026,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>17</v>
@@ -4696,10 +5037,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>17</v>
@@ -4707,21 +5048,21 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>17</v>
@@ -4729,21 +5070,15 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>17</v>
@@ -4751,15 +5086,21 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C312" s="0" t="s">
         <v>17</v>
@@ -4767,21 +5108,21 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>17</v>
@@ -4789,10 +5130,10 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>17</v>
@@ -4800,21 +5141,15 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C317" s="0" t="s">
         <v>17</v>
@@ -4822,43 +5157,43 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>17</v>
@@ -4866,15 +5201,21 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>17</v>
@@ -4882,21 +5223,15 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="C325" s="0" t="s">
         <v>17</v>
@@ -4904,10 +5239,10 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C326" s="0" t="s">
         <v>17</v>
@@ -4915,10 +5250,10 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>17</v>
@@ -4926,10 +5261,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C328" s="0" t="s">
         <v>17</v>
@@ -4937,21 +5272,15 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C330" s="0" t="s">
         <v>17</v>
@@ -4959,32 +5288,32 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>17</v>
@@ -4992,15 +5321,15 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>17</v>
@@ -5008,10 +5337,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C336" s="0" t="s">
         <v>17</v>
@@ -5019,10 +5348,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>17</v>
@@ -5030,21 +5359,15 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C338" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="C339" s="0" t="s">
         <v>17</v>
@@ -5052,10 +5375,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>17</v>
@@ -5063,10 +5386,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C341" s="0" t="s">
         <v>17</v>
@@ -5074,10 +5397,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C342" s="0" t="s">
         <v>17</v>
@@ -5085,10 +5408,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C343" s="0" t="s">
         <v>17</v>
@@ -5096,10 +5419,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C344" s="0" t="s">
         <v>17</v>
@@ -5107,10 +5430,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C345" s="0" t="s">
         <v>17</v>
@@ -5118,32 +5441,32 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>17</v>
@@ -5151,15 +5474,21 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C350" s="0" t="s">
         <v>17</v>
@@ -5167,10 +5496,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>17</v>
@@ -5178,10 +5507,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="C352" s="0" t="s">
         <v>17</v>
@@ -5189,43 +5518,37 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C356" s="0" t="s">
         <v>17</v>
@@ -5233,10 +5556,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="C357" s="0" t="s">
         <v>17</v>
@@ -5244,15 +5567,21 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="C359" s="0" t="s">
         <v>17</v>
@@ -5260,10 +5589,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>17</v>
@@ -5271,10 +5600,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>17</v>
@@ -5282,10 +5611,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>17</v>
@@ -5293,10 +5622,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>17</v>
@@ -5304,32 +5633,26 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C364" s="0" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>17</v>
@@ -5337,10 +5660,10 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>17</v>
@@ -5348,15 +5671,21 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="C369" s="0" t="s">
         <v>17</v>
@@ -5364,10 +5693,10 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>17</v>
@@ -5375,10 +5704,10 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>17</v>
@@ -5386,10 +5715,10 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C372" s="0" t="s">
         <v>17</v>
@@ -5397,54 +5726,42 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C373" s="0" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C376" s="0" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="C377" s="0" t="s">
         <v>17</v>
@@ -5452,10 +5769,10 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="C378" s="0" t="s">
         <v>17</v>
@@ -5463,26 +5780,32 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>17</v>
@@ -5490,10 +5813,10 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>17</v>
@@ -5501,43 +5824,37 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>17</v>
@@ -5545,37 +5862,43 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>17</v>
@@ -5583,43 +5906,37 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C392" s="0" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>17</v>
@@ -5627,26 +5944,32 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C397" s="0" t="s">
         <v>17</v>
@@ -5654,10 +5977,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>17</v>
@@ -5665,21 +5988,21 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>17</v>
@@ -5687,15 +6010,21 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>17</v>
@@ -5703,21 +6032,15 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C403" s="0" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>17</v>
@@ -5725,21 +6048,21 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="C406" s="0" t="s">
         <v>17</v>
@@ -5747,10 +6070,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>17</v>
@@ -5758,7 +6081,1952 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B503" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B509" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B528" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B533" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B545" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B546" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B547" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B548" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B549" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B550" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B551" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C551" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B553" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C553" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B554" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C555" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C560" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C564" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C565" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B566" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C566" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B568" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B570" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C570" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B573" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C578" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C582" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C583" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C584" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C585" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C586" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C590" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B591" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/intent_and_ner/Intent Training Examples_JL.xlsx
+++ b/src/data/intent_and_ner/Intent Training Examples_JL.xlsx
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Watsup</t>
+          <t>watsup</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>How</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hey</t>
+          <t>hey</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>How</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Do</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>sometimes</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Just</t>
+          <t>just</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3318,12 +3318,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Thanks</t>
+          <t>What is the meaning of life?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Thanks</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3335,21 +3335,29 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Thanks</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+          <t>What is the meaning of life?</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>I'm done</t>
+          <t>What is the meaning of life?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>the</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3361,12 +3369,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>I'm done</t>
+          <t>What is the meaning of life?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>'m</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3378,12 +3386,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>I'm done</t>
+          <t>What is the meaning of life?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>of</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3395,21 +3403,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>I'm done</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+          <t>What is the meaning of life?</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>That answers my question</t>
+          <t>What is the meaning of life?</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>That</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3421,29 +3437,21 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>That answers my question</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>answers</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What is the meaning of life?</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>That answers my question</t>
+          <t>Tell me about yourself</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>tell</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3455,12 +3463,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>That answers my question</t>
+          <t>Tell me about yourself</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3472,21 +3480,29 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>That answers my question</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+          <t>Tell me about yourself</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>No more questions</t>
+          <t>Tell me about yourself</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>yourself</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3498,29 +3514,21 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>No more questions</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Tell me about yourself</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>No more questions</t>
+          <t>how are you today</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3532,21 +3540,29 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>No more questions</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+          <t>how are you today</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nothing else</t>
+          <t>how are you today</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3558,12 +3574,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Nothing else</t>
+          <t>how are you today</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>else</t>
+          <t>today</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3575,7 +3591,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Nothing else</t>
+          <t>how are you today</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -3584,12 +3600,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>make me laugh</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>make</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3601,21 +3617,29 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nothing</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
+          <t>make me laugh</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>me</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bye</t>
+          <t>make me laugh</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Bye</t>
+          <t>laugh</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3627,7 +3651,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Bye</t>
+          <t>make me laugh</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -3636,12 +3660,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Goodbye</t>
+          <t>Thanks</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Goodbye</t>
+          <t>thanks</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3653,7 +3677,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Goodbye</t>
+          <t>Thanks</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -3662,12 +3686,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sayonara</t>
+          <t>I'm done</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sayonara</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3679,21 +3703,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sayonara</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+          <t>I'm done</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>'m</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Adios</t>
+          <t>I'm done</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Adios</t>
+          <t>done</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3705,7 +3737,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Adios</t>
+          <t>I'm done</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -3714,12 +3746,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>See ya</t>
+          <t>That answers my question</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>See</t>
+          <t>that</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3731,12 +3763,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>See ya</t>
+          <t>That answers my question</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ya</t>
+          <t>answers</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3748,21 +3780,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>See ya</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
+          <t>That answers my question</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cya</t>
+          <t>That answers my question</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cya</t>
+          <t>question</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3774,7 +3814,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cya</t>
+          <t>That answers my question</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -3783,12 +3823,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>kthxbai</t>
+          <t>No more questions</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>kthxbai</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3800,21 +3840,29 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>kthxbai</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
+          <t>No more questions</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>we done</t>
+          <t>No more questions</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3826,38 +3874,38 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>we done</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>No more questions</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>we done</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
+          <t>Nothing else</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>Nothing else</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>else</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3869,29 +3917,21 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>does</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Nothing else</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>Nothing</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>nothing</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3903,29 +3943,21 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Nothing</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>Bye</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>bye</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3937,29 +3969,21 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>market</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Bye</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>Goodbye</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>goodbye</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3971,29 +3995,21 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Goodbye</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>Sayonara</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>sayonara</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4005,80 +4021,64 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Sayonara</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>Adios</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>machine</t>
+          <t>adios</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>Adios</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>See ya</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>see</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>See ya</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>ya</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4090,89 +4090,73 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>San</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>See ya</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+          <t>Cya</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>cya</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Cya</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
+          <t>kthxbai</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>kthxbai</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>What</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>kthxbai</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>we done</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4184,12 +4168,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>we done</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>done</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4201,29 +4185,21 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>postings</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>we done</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4235,12 +4211,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4252,12 +4228,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>talking</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4269,12 +4245,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>very</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4286,12 +4262,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>strangely</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4303,46 +4279,46 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>think</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4354,29 +4330,29 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>’</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4388,21 +4364,29 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>What do job postings have in common for a data scientist in Chicago?</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
+          <t>You are talking very strangely. I think I’m done here.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>For</t>
+          <t>done</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4414,12 +4398,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>here</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4431,46 +4415,38 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>You are talking very strangely. I think I’m done here.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>analyst</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>You are talking very strangely. I think I’m done here.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>thank</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4482,29 +4458,29 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>so</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4516,12 +4492,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>much</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4533,12 +4509,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4550,12 +4526,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4567,12 +4543,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>postings</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4584,12 +4560,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>great</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4601,12 +4577,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4618,12 +4594,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+          <t>Thank you so much! Have a great day!</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4635,38 +4611,38 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Thank you so much! Have a great day!</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>For a product analyst in Seattle, what do job postings have in common?</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+          <t>That is everything I needed. Thanks.</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>That is everything I needed. Thanks.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Can</t>
+          <t>is</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4678,12 +4654,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>That is everything I needed. Thanks.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>everything</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4695,12 +4671,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>That is everything I needed. Thanks.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4712,12 +4688,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>That is everything I needed. Thanks.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4729,12 +4705,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>That is everything I needed. Thanks.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4746,12 +4722,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>That is everything I needed. Thanks.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>postings</t>
+          <t>thanks</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4763,12 +4739,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>That is everything I needed. Thanks.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4780,29 +4756,21 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>That is everything I needed. Thanks.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>Later alligator</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>later</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4814,55 +4782,55 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
+          <t>Later alligator</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>alligator</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Later alligator</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Can you show me job postings for HR in Detroit?</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>what</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>What skills do software engineers need</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>does</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4874,12 +4842,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>What skills do software engineers need</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>the</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4891,12 +4859,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>What skills do software engineers need</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>current</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4908,46 +4876,46 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>What skills do software engineers need</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>job</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>What skills do software engineers need</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>engineers</t>
+          <t>market</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>What skills do software engineers need</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>look</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4959,38 +4927,46 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>What skills do software engineers need</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Accountant skills?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Accountant skills?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5002,55 +4978,63 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Accountant skills?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>machine</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Accountant skills?</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5062,80 +5046,72 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>san</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>scientific</t>
+          <t>francisco</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What does the current job market look like for a machine learning engineer in San Francisco?</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5147,21 +5123,29 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>What skills do scientific researchers have?</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>job</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5173,12 +5157,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>postings</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5190,12 +5174,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5207,12 +5191,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5224,12 +5208,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5241,7 +5225,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5258,29 +5242,29 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5292,98 +5276,106 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>What skills do you need for product development?</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>product management skills</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>chicago</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>product management skills</t>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>product management skills</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What do job postings have in common for a data scientist in Chicago?</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>product management skills</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5395,46 +5387,46 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>analyst</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5446,29 +5438,29 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>seattle</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>,</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5480,63 +5472,63 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>machine</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>job</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>postings</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5548,21 +5540,29 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>What skills are required for a machine learning engineer?</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5574,12 +5574,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5591,12 +5591,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5608,29 +5608,21 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>For a product analyst in Seattle, what do job postings have in common?</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>show</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5642,12 +5634,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>requirements</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5659,92 +5651,92 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>software</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>engineering</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>analyst</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>chicago</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>What are the most common requirements for a product analyst?</t>
+          <t>Show me software engineering jobs in Chicago</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -5753,12 +5745,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>Send me actuarial analyst jobs in california</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>send</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5770,12 +5762,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>Send me actuarial analyst jobs in california</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5787,46 +5779,46 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>Send me actuarial analyst jobs in california</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>actuarial</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>Send me actuarial analyst jobs in california</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>analyst</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>Send me actuarial analyst jobs in california</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>postings</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5838,12 +5830,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>Send me actuarial analyst jobs in california</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5855,46 +5847,38 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>Send me actuarial analyst jobs in california</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>california</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Send me actuarial analyst jobs in california</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5906,12 +5890,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>many</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5923,29 +5907,29 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>management</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5957,29 +5941,29 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>positions</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5991,21 +5975,29 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>What do most job postings list as required skills for a data scientist?</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr"/>
-      <c r="C275" t="inlineStr"/>
+          <t>How many product management positions are open in Tampa?</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6017,29 +6009,29 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>tampa</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
+          <t>How many product management positions are open in Tampa?</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>does</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6051,63 +6043,55 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>How many product management positions are open in Tampa?</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>administrator</t>
+          <t>job</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>openings</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6119,12 +6103,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6136,21 +6120,29 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>What skills does an office administrator need?</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr"/>
-      <c r="C284" t="inlineStr"/>
+          <t>What job openings are there for software engineers in boston?</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>there</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6162,46 +6154,46 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>software</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>engineers</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6213,29 +6205,29 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>listed</t>
+          <t>boston</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>What job openings are there for software engineers in boston?</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6247,29 +6239,21 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>actuary</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>What job openings are there for software engineers in boston?</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>jobs</t>
+          <t>can</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6281,12 +6265,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6298,21 +6282,29 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>What are top skills listed for actuary jobs?</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr"/>
-      <c r="C294" t="inlineStr"/>
+          <t>Can you help me find job postings for actuaries in florida?</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6324,12 +6316,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6341,12 +6333,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>job</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6358,63 +6350,63 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>postings</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>scientists</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>actuaries</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6426,55 +6418,55 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
+          <t>Can you help me find job postings for actuaries in florida?</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>what skills do computer scientists need to know</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr"/>
-      <c r="C303" t="inlineStr"/>
+          <t>Can you help me find job postings for actuaries in florida?</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>what skills do coders have</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Can you help me find job postings for actuaries in florida?</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>what skills do coders have</t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6486,12 +6478,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>what skills do coders have</t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>there</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6503,12 +6495,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>what skills do coders have</t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>coders</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6520,12 +6512,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>what skills do coders have</t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6537,21 +6529,29 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>what skills do coders have</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr"/>
-      <c r="C309" t="inlineStr"/>
+          <t>Are there marketing jobs open in santa fe?</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t xml:space="preserve">what skills do analysts have? </t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6563,80 +6563,72 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t xml:space="preserve">what skills do analysts have? </t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>santa</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t xml:space="preserve">what skills do analysts have? </t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>fe</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t xml:space="preserve">what skills do analysts have? </t>
+          <t>Are there marketing jobs open in santa fe?</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>analysts</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t xml:space="preserve">what skills do analysts have? </t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Are there marketing jobs open in santa fe?</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t xml:space="preserve">what skills do analysts have? </t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6648,38 +6640,46 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t xml:space="preserve">what skills do analysts have? </t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr"/>
-      <c r="C316" t="inlineStr"/>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>analyst</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6691,12 +6691,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6708,12 +6708,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>there</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6725,12 +6725,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6742,72 +6742,72 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>york</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>What is the meaning of life?</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr"/>
-      <c r="C324" t="inlineStr"/>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Tell me about yourself</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Tell</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Tell me about yourself</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>can</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6819,12 +6819,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Tell me about yourself</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6836,12 +6836,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Tell me about yourself</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>yourself</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6853,21 +6853,29 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Tell me about yourself</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr"/>
-      <c r="C329" t="inlineStr"/>
+          <t>Can I find work as an accountant in new hampshire?</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>how are you today</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6879,12 +6887,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>how are you today</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>an</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6896,29 +6904,29 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>how are you today</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>how are you today</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6930,38 +6938,46 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>how are you today</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr"/>
-      <c r="C334" t="inlineStr"/>
+          <t>Can I find work as an accountant in new hampshire?</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>make me laugh</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>hampshire</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>make me laugh</t>
+          <t>Can I find work as an accountant in new hampshire?</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6973,38 +6989,38 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>make me laugh</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>laugh</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Can I find work as an accountant in new hampshire?</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>make me laugh</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr"/>
-      <c r="C338" t="inlineStr"/>
+          <t>Can you show me job postings for HR in Detroit?</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7016,12 +7032,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>show</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7033,12 +7049,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7050,12 +7066,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>job</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7067,12 +7083,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>strangely</t>
+          <t>postings</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7084,12 +7100,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7101,29 +7117,29 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>hr</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7135,29 +7151,29 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>detroit</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>Can you show me job postings for HR in Detroit?</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>’</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7169,29 +7185,21 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Can you show me job postings for HR in Detroit?</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7203,12 +7211,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>here</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7220,12 +7228,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7237,21 +7245,29 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>You are talking very strangely. I think I’m done here.</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
+          <t>What jobs are available for HR managers in georgia?</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Thank</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7263,46 +7279,46 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>hr</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>managers</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7314,29 +7330,29 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>!</t>
+          <t>georgia</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>What jobs are available for HR managers in georgia?</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Have</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7348,29 +7364,21 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What jobs are available for HR managers in georgia?</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>if</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7382,12 +7390,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7399,12 +7407,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>!</t>
+          <t>wanted</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7416,21 +7424,29 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Thank you so much! Have a great day!</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr"/>
-      <c r="C364" t="inlineStr"/>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>That</t>
+          <t>live</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7442,12 +7458,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7459,46 +7475,46 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>everything</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>york</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>,</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7510,12 +7526,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>can</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7527,12 +7543,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Thanks</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7544,12 +7560,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7561,21 +7577,29 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>That is everything I needed. Thanks.</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr"/>
-      <c r="C373" t="inlineStr"/>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Later alligator</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Later</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7587,12 +7611,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Later alligator</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>alligator</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7604,38 +7628,46 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Later alligator</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr"/>
-      <c r="C376" t="inlineStr"/>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Show</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7647,106 +7679,106 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>software</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>engineering</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>jobs</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>jersey</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>,</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Show me software engineering jobs in Chicago</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr"/>
-      <c r="C384" t="inlineStr"/>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Send</t>
+          <t>there</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -7758,12 +7790,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>any</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7775,46 +7807,46 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>actuarial</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>analyst</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>jobs</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7826,55 +7858,63 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>senior</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>california</t>
+          <t>software</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Send me actuarial analyst jobs in california</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr"/>
-      <c r="C392" t="inlineStr"/>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>engineers</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>How</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7886,63 +7926,55 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>want</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>positions</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7954,12 +7986,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>be</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7971,12 +8003,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7988,72 +8020,80 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>machine</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>How many product management positions are open in Tampa?</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr"/>
-      <c r="C403" t="inlineStr"/>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>the</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -8065,46 +8105,46 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>united</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>openings</t>
+          <t>kingdom</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -8116,29 +8156,21 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>I want to be a machine learning engineer in the united kingdom.</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>What skills do software engineers need</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8150,80 +8182,80 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>What skills do software engineers need</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>What skills do software engineers need</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>engineers</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>What skills do software engineers need</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>software</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>What skills do software engineers need</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>boston</t>
+          <t>engineers</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>What skills do software engineers need</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -8235,7 +8267,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>What job openings are there for software engineers in boston?</t>
+          <t>What skills do software engineers need</t>
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
@@ -8244,29 +8276,29 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>Accountant skills?</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Can</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>Accountant skills?</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8278,12 +8310,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>Accountant skills?</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8295,29 +8327,21 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>me</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>Accountant skills?</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>What skills do scientific researchers have?</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -8329,12 +8353,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>What skills do scientific researchers have?</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8346,12 +8370,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>What skills do scientific researchers have?</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>postings</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -8363,29 +8387,29 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>What skills do scientific researchers have?</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>scientific</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>What skills do scientific researchers have?</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>actuaries</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8397,12 +8421,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>What skills do scientific researchers have?</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8414,55 +8438,55 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
+          <t>What skills do scientific researchers have?</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>florida</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What skills do scientific researchers have?</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Can you help me find job postings for actuaries in florida?</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr"/>
-      <c r="C428" t="inlineStr"/>
+          <t>What skills do you need for product development?</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>what</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Are</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -8474,12 +8498,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -8491,29 +8515,29 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>jobs</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -8525,12 +8549,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -8542,140 +8566,132 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>santa</t>
+          <t>development</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
+          <t>What skills do you need for product development?</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>fe</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What skills do you need for product development?</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Are there marketing jobs open in santa fe?</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr"/>
-      <c r="C438" t="inlineStr"/>
+          <t>product management skills</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>product management skills</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>management</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>product management skills</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>analyst</t>
-        </is>
-      </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>product management skills</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>What skills are needed as an artist?</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>jobs</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -8687,12 +8703,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>What skills are needed as an artist?</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -8704,12 +8720,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>What skills are needed as an artist?</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -8721,12 +8737,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>What skills are needed as an artist?</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8738,89 +8754,89 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>What skills are needed as an artist?</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>What skills are needed as an artist?</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>York</t>
+          <t>an</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
+          <t>What skills are needed as an artist?</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>artist</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t xml:space="preserve">What data analyst jobs are there in New York? </t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr"/>
-      <c r="C449" t="inlineStr"/>
+          <t>What skills are needed as an artist?</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>Can</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What skills are needed as an artist?</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8832,12 +8848,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8849,12 +8865,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8866,12 +8882,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>required</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8883,12 +8899,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8900,75 +8916,75 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>machine</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>hampshire</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -8985,7 +9001,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Can I find work as an accountant in new hampshire?</t>
+          <t>What skills are required for a machine learning engineer?</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -8994,12 +9010,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -9011,12 +9027,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>jobs</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -9028,12 +9044,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>the</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -9045,12 +9061,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>most</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -9062,12 +9078,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -9079,46 +9095,46 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>requirements</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>managers</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -9130,72 +9146,72 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>georgia</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
+          <t>What are the most common requirements for a product analyst?</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>analyst</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>What jobs are available for HR managers in georgia?</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr"/>
-      <c r="C472" t="inlineStr"/>
+          <t>What are the most common requirements for a product analyst?</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What are the most common requirements for a product analyst?</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9207,12 +9223,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>wanted</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -9224,12 +9240,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>most</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9241,12 +9257,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>job</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9258,12 +9274,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>postings</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -9275,46 +9291,46 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>list</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>required</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -9326,12 +9342,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -9343,12 +9359,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -9360,12 +9376,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -9377,46 +9393,46 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What do most job postings list as required skills for a data scientist?</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -9428,46 +9444,38 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>What do most job postings list as required skills for a data scientist?</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What skills does an office administrator need?</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
+          <t>What skills does an office administrator need?</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -9479,21 +9487,29 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>If I wanted to live in new york, can I find work as a data engineer?</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr"/>
-      <c r="C491" t="inlineStr"/>
+          <t>What skills does an office administrator need?</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>does</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What skills does an office administrator need?</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>For</t>
+          <t>an</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -9505,46 +9521,46 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What skills does an office administrator need?</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>office</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What skills does an office administrator need?</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>jersey</t>
+          <t>administrator</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What skills does an office administrator need?</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -9556,12 +9572,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What skills does an office administrator need?</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -9573,29 +9589,21 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What skills does an office administrator need?</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -9607,12 +9615,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>jobs</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -9624,12 +9632,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>top</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -9641,12 +9649,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -9658,46 +9666,46 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>senior</t>
+          <t>listed</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>engineers</t>
+          <t>actuary</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -9709,12 +9717,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
+          <t>What are top skills listed for actuary jobs?</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9726,38 +9734,38 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>For new jersey, are there any jobs open for senior software engineers?</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr"/>
-      <c r="C506" t="inlineStr"/>
+          <t>What are top skills listed for actuary jobs?</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What are top skills listed for actuary jobs?</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr"/>
+      <c r="C507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9769,12 +9777,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9786,12 +9794,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9803,12 +9811,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9820,29 +9828,29 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>machine</t>
+          <t>that</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9854,12 +9862,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>scientists</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9871,12 +9879,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9888,12 +9896,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9905,72 +9913,72 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
+          <t>What are common traits that computer scientists need to have?</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>kingdom</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>What are common traits that computer scientists need to have?</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>I want to be a machine learning engineer in the united kingdom.</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr"/>
-      <c r="C520" t="inlineStr"/>
+          <t>what skills do computer scientists need to know</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>what</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
+          <t>what skills do computer scientists need to know</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9982,12 +9990,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
+          <t>what skills do computer scientists need to know</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9999,46 +10007,46 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
+          <t>what skills do computer scientists need to know</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
+          <t>what skills do computer scientists need to know</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>scientists</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
+          <t>what skills do computer scientists need to know</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10050,12 +10058,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
+          <t>what skills do computer scientists need to know</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -10067,55 +10075,55 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
+          <t>what skills do computer scientists need to know</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>artist</t>
+          <t>know</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>what skills do computer scientists need to know</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>What skills are needed as an artist?</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr"/>
-      <c r="C529" t="inlineStr"/>
+          <t>what skills do coders have</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>what</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>what skills do coders have</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -10127,12 +10135,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>what skills do coders have</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -10144,29 +10152,29 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>what skills do coders have</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>coders</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>what skills do coders have</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -10178,63 +10186,55 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>what skills do coders have</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>can you tell me about the most frequent skills a coder might need?</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>can</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>can you tell me about the most frequent skills a coder might need?</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>scientists</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>can you tell me about the most frequent skills a coder might need?</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>tell</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -10246,12 +10246,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>can you tell me about the most frequent skills a coder might need?</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -10263,12 +10263,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>can you tell me about the most frequent skills a coder might need?</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>about</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -10280,12 +10280,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
+          <t>can you tell me about the most frequent skills a coder might need?</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>the</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -10297,11 +10297,19 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>What are common traits that computer scientists need to have?</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr"/>
-      <c r="C541" t="inlineStr"/>
+          <t>can you tell me about the most frequent skills a coder might need?</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -10311,7 +10319,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>frequent</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -10328,7 +10336,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -10345,7 +10353,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>tell</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -10362,12 +10370,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>coder</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10387,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>might</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -10396,7 +10404,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -10413,7 +10421,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>?</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -10428,26 +10436,18 @@
           <t>can you tell me about the most frequent skills a coder might need?</t>
         </is>
       </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>frequent</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>can you tell me about the most frequent skills a coder might need?</t>
+          <t xml:space="preserve">what skills do analysts have? </t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -10459,12 +10459,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>can you tell me about the most frequent skills a coder might need?</t>
+          <t xml:space="preserve">what skills do analysts have? </t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -10476,46 +10476,46 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>can you tell me about the most frequent skills a coder might need?</t>
+          <t xml:space="preserve">what skills do analysts have? </t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>coder</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>can you tell me about the most frequent skills a coder might need?</t>
+          <t xml:space="preserve">what skills do analysts have? </t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>analysts</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>can you tell me about the most frequent skills a coder might need?</t>
+          <t xml:space="preserve">what skills do analysts have? </t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -10527,7 +10527,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>can you tell me about the most frequent skills a coder might need?</t>
+          <t xml:space="preserve">what skills do analysts have? </t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -10544,7 +10544,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>can you tell me about the most frequent skills a coder might need?</t>
+          <t xml:space="preserve">what skills do analysts have? </t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
